--- a/data/transportation/traffic/clean/total_miles_traveled_xls.xlsx
+++ b/data/transportation/traffic/clean/total_miles_traveled_xls.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18285\Documents\NSS\Capstone_Jeff\data\transportation\traffic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18285\Documents\NSS\carbon_emissions\data\transportation\traffic\clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB6DD81-B325-4932-BAB5-D5F9A4A98692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCAE05B-1AE3-4862-BEDE-6601A79ABA90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total_miles_traveled" sheetId="1" r:id="rId1"/>
-    <sheet name="qtrs" sheetId="2" r:id="rId2"/>
-    <sheet name="region" sheetId="3" r:id="rId3"/>
+    <sheet name="total_miles_quarters" sheetId="2" r:id="rId2"/>
+    <sheet name="total_miles_region" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1089,13 +1089,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1418,15 +1419,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AE2A79-033F-4430-B282-CE14D96E3647}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="4"/>
@@ -1578,7 +1579,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
